--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem5/42/word_level_predictions_42.xlsx
@@ -5546,210 +5546,210 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E99" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G99" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K99" t="b">
-        <v>1</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K100" t="b">
-        <v>1</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L100" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K101" t="b">
-        <v>1</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C102" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E102" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K102" t="b">
-        <v>1</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I102" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6638,626 +6638,626 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>5</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>After</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>9</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F120" s="2" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>5</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>powering</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" t="n">
         <v>10</v>
       </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" t="n">
         <v>5</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C122" s="2" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D122" s="2" t="n">
+      <c r="D122" t="n">
         <v>11</v>
       </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>5</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" t="n">
         <v>12</v>
       </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>5</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>aircraft,</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" t="n">
         <v>13</v>
       </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>5</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>replace</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>14</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" t="n">
         <v>5</v>
       </c>
-      <c r="B126" s="2" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C126" s="2" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n">
+      <c r="D126" t="n">
         <v>15</v>
       </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="inlineStr">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" t="n">
         <v>5</v>
       </c>
-      <c r="B127" s="2" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C127" s="2" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>propeller</t>
         </is>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" t="n">
         <v>16</v>
       </c>
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="inlineStr">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" t="n">
         <v>5</v>
       </c>
-      <c r="B128" s="2" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C128" s="2" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" t="n">
         <v>17</v>
       </c>
-      <c r="E128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="inlineStr">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" t="n">
         <v>5</v>
       </c>
-      <c r="B129" s="2" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C129" s="2" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" t="n">
         <v>18</v>
       </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="inlineStr">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" t="n">
         <v>5</v>
       </c>
-      <c r="B130" s="2" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C130" s="2" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>beeping</t>
         </is>
       </c>
-      <c r="D130" s="2" t="n">
+      <c r="D130" t="n">
         <v>19</v>
       </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" t="n">
         <v>5</v>
       </c>
-      <c r="B131" s="2" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C131" s="2" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>ESC</t>
         </is>
       </c>
-      <c r="D131" s="2" t="n">
+      <c r="D131" t="n">
         <v>20</v>
       </c>
-      <c r="E131" s="2" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem5/42/word_level_predictions_42.xlsx
@@ -5546,210 +5546,210 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" t="n">
         <v>4</v>
       </c>
-      <c r="B99" s="2" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" s="2" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" t="n">
         <v>5</v>
       </c>
-      <c r="E99" s="2" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F99" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L99" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" t="n">
         <v>4</v>
       </c>
-      <c r="B100" s="2" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C100" s="2" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D100" s="2" t="n">
+      <c r="D100" t="n">
         <v>6</v>
       </c>
-      <c r="E100" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G100" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L100" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" t="n">
         <v>4</v>
       </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" s="2" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D101" s="2" t="n">
+      <c r="D101" t="n">
         <v>7</v>
       </c>
-      <c r="E101" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G101" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L101" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" t="n">
         <v>4</v>
       </c>
-      <c r="B102" s="2" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" s="2" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D102" s="2" t="n">
+      <c r="D102" t="n">
         <v>8</v>
       </c>
-      <c r="E102" s="2" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F102" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L102" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6638,626 +6638,626 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>After</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="E120" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="F120" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>powering</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>aircraft,</t>
         </is>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>replace</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C126" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C127" s="2" t="inlineStr">
         <is>
           <t>propeller</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C128" s="2" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C129" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C130" s="2" t="inlineStr">
         <is>
           <t>beeping</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C131" s="2" t="inlineStr">
         <is>
           <t>ESC</t>
         </is>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="E131" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
